--- a/AD9834.xlsx
+++ b/AD9834.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\BenchSignalGenerator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F055A639-C584-49C8-87E7-2986BE9B37A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F9462C-A565-4FF1-A4C5-14B8CDC4B20D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FAFCC82C-7FD2-4DC5-8455-D8A2CBC67008}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="STM32L433CCT6" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="113">
   <si>
     <t>FS_Adjust</t>
   </si>
@@ -150,13 +151,235 @@
   </si>
   <si>
     <t>Logic Output. The comparator output is available on this pin or, alternatively, the MSB from the NCO can be output on this pin. Setting Bit OPBITEN in the control register to 1 enables this output pin. Bit SIGN/PIB determines whether the comparator output or the MSB from the NCO is output on the pin.</t>
+  </si>
+  <si>
+    <t>VBAT</t>
+  </si>
+  <si>
+    <t>PC13</t>
+  </si>
+  <si>
+    <t>PC14/oscin</t>
+  </si>
+  <si>
+    <t>pc15/oscout</t>
+  </si>
+  <si>
+    <t>ph0/oscin</t>
+  </si>
+  <si>
+    <t>ph1/oscout</t>
+  </si>
+  <si>
+    <t>RESET</t>
+  </si>
+  <si>
+    <t>VSSA/VREF-</t>
+  </si>
+  <si>
+    <t>VDDA/VREF</t>
+  </si>
+  <si>
+    <t>PA0</t>
+  </si>
+  <si>
+    <t>PA1</t>
+  </si>
+  <si>
+    <t>PA2</t>
+  </si>
+  <si>
+    <t>PA3</t>
+  </si>
+  <si>
+    <t>PA4</t>
+  </si>
+  <si>
+    <t>PA5</t>
+  </si>
+  <si>
+    <t>PA6</t>
+  </si>
+  <si>
+    <t>PA7</t>
+  </si>
+  <si>
+    <t>PA8</t>
+  </si>
+  <si>
+    <t>PA9</t>
+  </si>
+  <si>
+    <t>PB0</t>
+  </si>
+  <si>
+    <t>PB1</t>
+  </si>
+  <si>
+    <t>PB2</t>
+  </si>
+  <si>
+    <t>PB10</t>
+  </si>
+  <si>
+    <t>PB11</t>
+  </si>
+  <si>
+    <t>VSS</t>
+  </si>
+  <si>
+    <t>VDD</t>
+  </si>
+  <si>
+    <t>PB12</t>
+  </si>
+  <si>
+    <t>PB13</t>
+  </si>
+  <si>
+    <t>PB14</t>
+  </si>
+  <si>
+    <t>PB15</t>
+  </si>
+  <si>
+    <t>PA10</t>
+  </si>
+  <si>
+    <t>PA11</t>
+  </si>
+  <si>
+    <t>PA12</t>
+  </si>
+  <si>
+    <t>PA13</t>
+  </si>
+  <si>
+    <t>VDDUSB</t>
+  </si>
+  <si>
+    <t>PA14</t>
+  </si>
+  <si>
+    <t>PA15</t>
+  </si>
+  <si>
+    <t>PB3</t>
+  </si>
+  <si>
+    <t>PB4</t>
+  </si>
+  <si>
+    <t>PB5</t>
+  </si>
+  <si>
+    <t>PB6</t>
+  </si>
+  <si>
+    <t>PB7</t>
+  </si>
+  <si>
+    <t>PH3-BOOT0</t>
+  </si>
+  <si>
+    <t>PB8</t>
+  </si>
+  <si>
+    <t>PB9</t>
+  </si>
+  <si>
+    <t>Tim2_CH1</t>
+  </si>
+  <si>
+    <t>TIM2_CH2</t>
+  </si>
+  <si>
+    <t>ADC1_IN7</t>
+  </si>
+  <si>
+    <t>gpio</t>
+  </si>
+  <si>
+    <t>SPI1_nss</t>
+  </si>
+  <si>
+    <t>SPI1_SCK</t>
+  </si>
+  <si>
+    <t>SPI1_MISO</t>
+  </si>
+  <si>
+    <t>SPI1_MOSI</t>
+  </si>
+  <si>
+    <t>SPI2_SCK</t>
+  </si>
+  <si>
+    <t>SPI2_NSS</t>
+  </si>
+  <si>
+    <t>SPI2_MOSI</t>
+  </si>
+  <si>
+    <t>USART_TX</t>
+  </si>
+  <si>
+    <t>USART_RX</t>
+  </si>
+  <si>
+    <t>USART_CTS</t>
+  </si>
+  <si>
+    <t>USART_RTS</t>
+  </si>
+  <si>
+    <t>SWDIO</t>
+  </si>
+  <si>
+    <t>SWCLK</t>
+  </si>
+  <si>
+    <t>JTDI</t>
+  </si>
+  <si>
+    <t>SWO</t>
+  </si>
+  <si>
+    <t>I2C_SCL</t>
+  </si>
+  <si>
+    <t>I2C_SDA</t>
+  </si>
+  <si>
+    <t>SPI2_MISO</t>
+  </si>
+  <si>
+    <t>Calculations:</t>
+  </si>
+  <si>
+    <t>17v versus 3.3v</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
+    <t>Vlow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,8 +395,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -210,6 +441,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -238,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -249,6 +492,22 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -264,6 +523,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>332609</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>46892</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09ABBDAF-6AF5-464D-97A3-FC77C9160272}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7315200" y="466725"/>
+          <a:ext cx="6123809" cy="5866667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -563,10 +871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4EEF84-761F-4DD2-9D98-D21CA70285CA}">
-  <dimension ref="B5:H14"/>
+  <dimension ref="B5:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,7 +932,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" ref="D7:D15" si="0">D6+1</f>
+        <f t="shared" ref="D7:D14" si="0">D6+1</f>
         <v>3</v>
       </c>
       <c r="E7" s="1"/>
@@ -800,8 +1108,602 @@
         <v>33</v>
       </c>
     </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25">
+        <f>3.3/17</f>
+        <v>0.19411764705882351</v>
+      </c>
+    </row>
+    <row r="27" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>109</v>
+      </c>
+      <c r="F27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>110</v>
+      </c>
+      <c r="F28">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="30" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>111</v>
+      </c>
+      <c r="F30">
+        <f>F27/(F27+F28)</f>
+        <v>0.18181818181818182</v>
+      </c>
+    </row>
+    <row r="31" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC69384-6007-4E76-852C-377C5B6B00E6}">
+  <dimension ref="D5:J28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X20" sqref="X20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="13">
+        <v>1</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="14">
+        <f>F28+1</f>
+        <v>25</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D6" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="13">
+        <f>F5+1</f>
+        <v>2</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="14">
+        <f>H5+1</f>
+        <v>26</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D7" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="13">
+        <f t="shared" ref="F7:F28" si="0">F6+1</f>
+        <v>3</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="14">
+        <f t="shared" ref="H7:H28" si="1">H6+1</f>
+        <v>27</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D8" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D9" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D10" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="13">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="14">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E11" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="13">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="14">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E13" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="13">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D14" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="14">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D15" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D16" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="14">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D17" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="13">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D18" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="13">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="G18" s="13"/>
+      <c r="H18" s="14">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D19" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="13">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="14">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D20" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="13">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G20" s="13"/>
+      <c r="H20" s="14">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D21" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="13">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="G21" s="13"/>
+      <c r="H21" s="14">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D22" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="13">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="G22" s="13"/>
+      <c r="H22" s="14">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D23" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="13">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="G23" s="13"/>
+      <c r="H23" s="14">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="J23" s="16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D24" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="13">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G24" s="13"/>
+      <c r="H24" s="14">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D25" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="13">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D26" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="13">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="G26" s="13"/>
+      <c r="H26" s="14">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E27" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="13">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="G27" s="13"/>
+      <c r="H27" s="14">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E28" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="13">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G28" s="13"/>
+      <c r="H28" s="14">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>